--- a/public/remito/Book1.xlsx
+++ b/public/remito/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223740C9-679B-45D8-B683-31BAD43BA359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064CDF0-DB6C-4435-8E16-CDA10AF02162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,14 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>refdfd</t>
-  </si>
-  <si>
-    <t>dfd</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,25 +385,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:H6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I8" sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>